--- a/KasaDevices/Documentation.xlsx
+++ b/KasaDevices/Documentation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\0 - Hubitat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DEA37-A628-4598-AAC4-5376303B6174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A471C-678C-4B50-89CA-8D10356C8103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3233" yWindow="204" windowWidth="14889" windowHeight="13856" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="5312" yWindow="231" windowWidth="19440" windowHeight="13857" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Hubitat Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="208">
   <si>
     <t>Preferences</t>
   </si>
@@ -68,72 +68,6 @@
   </si>
   <si>
     <t>Driver File</t>
-  </si>
-  <si>
-    <t>HS-100</t>
-  </si>
-  <si>
-    <t>HS-103</t>
-  </si>
-  <si>
-    <t>HS-105</t>
-  </si>
-  <si>
-    <t>HS-200</t>
-  </si>
-  <si>
-    <t>HS-210</t>
-  </si>
-  <si>
-    <t>KP-100</t>
-  </si>
-  <si>
-    <t>HS-107</t>
-  </si>
-  <si>
-    <t>KP-200</t>
-  </si>
-  <si>
-    <t>KP-400</t>
-  </si>
-  <si>
-    <t>HS-220</t>
-  </si>
-  <si>
-    <t>HS-110</t>
-  </si>
-  <si>
-    <t>KB-100</t>
-  </si>
-  <si>
-    <t>LB-100</t>
-  </si>
-  <si>
-    <t>LB-110</t>
-  </si>
-  <si>
-    <t>KL-110</t>
-  </si>
-  <si>
-    <t>LB-200</t>
-  </si>
-  <si>
-    <t>LB-120</t>
-  </si>
-  <si>
-    <t>KL-120</t>
-  </si>
-  <si>
-    <t>KB-130</t>
-  </si>
-  <si>
-    <t>LB-130</t>
-  </si>
-  <si>
-    <t>KL-130</t>
-  </si>
-  <si>
-    <t>LB-230</t>
   </si>
   <si>
     <t>TP-LinkPlug-Switch(Hubitat).groovy</t>
@@ -324,16 +258,10 @@
     <t>TP-LinkEM-Plug(Hubitat).groovy</t>
   </si>
   <si>
-    <t>Important</t>
-  </si>
-  <si>
     <t>You must first install the device using the TP-Link Kasa Application.  That is the only way to connect the device to the local LAN.</t>
   </si>
   <si>
     <t>TP-LinkEM-Multi-Plug(Hubitat).groovy</t>
-  </si>
-  <si>
-    <t>HS-300</t>
   </si>
   <si>
     <t>TP-LinkMulti-Plug(Hubitat).groovy</t>
@@ -424,15 +352,9 @@
     <t>With reference to the device table above and the column Command Group, the functionality of each device described below.</t>
   </si>
   <si>
-    <t>KP-115</t>
-  </si>
-  <si>
     <t>TP-Link Model Examples</t>
   </si>
   <si>
-    <t>KL-50</t>
-  </si>
-  <si>
     <t>Group 3, 4 ,5, 6.</t>
   </si>
   <si>
@@ -518,6 +440,285 @@
   </si>
   <si>
     <t>Groups: All.  Reboots the device.  For multiplugs it reboots the entire power strip.</t>
+  </si>
+  <si>
+    <t>KP303</t>
+  </si>
+  <si>
+    <t>HS100</t>
+  </si>
+  <si>
+    <t>HS103</t>
+  </si>
+  <si>
+    <t>HS105</t>
+  </si>
+  <si>
+    <t>HS200</t>
+  </si>
+  <si>
+    <t>HS107</t>
+  </si>
+  <si>
+    <t>HS220</t>
+  </si>
+  <si>
+    <t>HS110</t>
+  </si>
+  <si>
+    <t>HS300</t>
+  </si>
+  <si>
+    <t>KB100</t>
+  </si>
+  <si>
+    <t>KL110</t>
+  </si>
+  <si>
+    <t>LB120</t>
+  </si>
+  <si>
+    <t>KB130</t>
+  </si>
+  <si>
+    <t>LB230</t>
+  </si>
+  <si>
+    <t>HS210</t>
+  </si>
+  <si>
+    <t>KP400</t>
+  </si>
+  <si>
+    <t>KP115</t>
+  </si>
+  <si>
+    <t>LB100</t>
+  </si>
+  <si>
+    <t>LB200</t>
+  </si>
+  <si>
+    <t>KL120</t>
+  </si>
+  <si>
+    <t>LB130</t>
+  </si>
+  <si>
+    <t>KP100</t>
+  </si>
+  <si>
+    <t>KP200</t>
+  </si>
+  <si>
+    <t>LB110</t>
+  </si>
+  <si>
+    <t>KL50</t>
+  </si>
+  <si>
+    <t>KL130</t>
+  </si>
+  <si>
+    <t>KL125</t>
+  </si>
+  <si>
+    <t>kl430</t>
+  </si>
+  <si>
+    <t>KL60</t>
+  </si>
+  <si>
+    <t>Troubleshooting and Problem Reporting Guide</t>
+  </si>
+  <si>
+    <t>Installation Issues</t>
+  </si>
+  <si>
+    <t>Device(s) not on Devices to add list (Add Kasa Devices to Hibutat page)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>Press next and then Install Kasa Devices
+* If device(s) present, continue installation.</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Verify that the device(s) is working using the Kasa Phone App</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compare device(s) IP to that of LAN to assure on the same segment.  Example:
+* Hub IP: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>192.168.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.121 (segment in bold)
+* Device IP: 192.168.50.122 is OK.  192.168.0.122 is on different segment</t>
+    </r>
+  </si>
+  <si>
+    <t>If on different segment, the App Main page includes "Use Alternate Lan Segment" option.</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>Verify your device is not installed on a protected WiFi Network (i.e., different SSID on same router).</t>
+  </si>
+  <si>
+    <t>Application generates an error message on the Application display</t>
+  </si>
+  <si>
+    <t>Open logging in a separate page</t>
+  </si>
+  <si>
+    <t>Open / Install the app from the apps page.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Select "Enable debug logging for 30 minutes.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>After error, go to logging page and select Kasa Integration .</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>You select a device, but it does not install.</t>
+  </si>
+  <si>
+    <t>Close logs (if open).  Open the log page and go to Past logs.</t>
+  </si>
+  <si>
+    <t>Select Kasa Integration</t>
+  </si>
+  <si>
+    <t>Look for an entry for an ERRO entry similar to the below</t>
+  </si>
+  <si>
+    <t>[KasaInt/6.3.0]: Failed to install device.
+Device: D84732FC5479={feature=null, ip=192.168.50.119, alias=Couch Left, model=KL130, type=Kasa Color Bulb, deviceId=8012003F8FA029BC7B7FB2C17EAEA4831D0EAD25, dni=D84732FC5479}
+Driver: Dev Kasa Color Bulb</t>
+  </si>
+  <si>
+    <t>If this message appears, the named Driver was not detected.</t>
+  </si>
+  <si>
+    <t>f.</t>
+  </si>
+  <si>
+    <t>Install driver "driver" and try again.</t>
+  </si>
+  <si>
+    <t>g.</t>
+  </si>
+  <si>
+    <t>Provide log data and description of the error per instructions at bottom of this guide.</t>
+  </si>
+  <si>
+    <t>If failure persists, rovide log data and description of the error per instructions at bottom of this guide.</t>
+  </si>
+  <si>
+    <t>Operations Issue</t>
+  </si>
+  <si>
+    <t>A Function does not operate or operates with errors.</t>
+  </si>
+  <si>
+    <t>Open a new Hubitat Logs page</t>
+  </si>
+  <si>
+    <t>Save preferences and wait 1 minute.</t>
+  </si>
+  <si>
+    <t>While observing the device, complete and On / Off / Refresh sequence with 5 seconds between presses.</t>
+  </si>
+  <si>
+    <t>If error was with a specific function (other than On/Off/Refresh) execute that function.</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Copy log page data (as text) and send in accordance with information at the bottom of the page.</t>
+  </si>
+  <si>
+    <t>You get error or warning message while running a specific function.</t>
+  </si>
+  <si>
+    <t>Om the device's Edit Page, go to the preferences and assure the following:
+* 30 minutes of debug logging is NOT selected (is white).
+* Enable description text logging is selected (is blue).</t>
+  </si>
+  <si>
+    <t>On the device's Edit Page, go to preferences.
+* Select "30 minutes of debug logging"
+Save Prefernces</t>
+  </si>
+  <si>
+    <t>Close any logs page that is open then open a NEW logs page</t>
+  </si>
+  <si>
+    <t>Execute the function that causes the error</t>
+  </si>
+  <si>
+    <t>Capture the error message and a description of the function causing error for inclusion in report.</t>
+  </si>
+  <si>
+    <t>If the error appears, copy the log and include in error report.</t>
+  </si>
+  <si>
+    <t>Reporting Errors</t>
+  </si>
+  <si>
+    <t>Report a BRIEF summary of the error in the Hubitat Community Forum "[RELEASE] TP-Link/Kasa Plug, Switch, and Bulb integration"</t>
+  </si>
+  <si>
+    <t>Provide a detailed report to @davegut via Private Message.  Include:</t>
+  </si>
+  <si>
+    <t>Link:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://community.hubitat.com/t/release-tp-link-kasa-plug-switch-and-bulb-integration/1675</t>
+  </si>
+  <si>
+    <t>A short text description of the problem.</t>
+  </si>
+  <si>
+    <t>Data collected in accordance with this troubleshooting guide.</t>
+  </si>
+  <si>
+    <t>Data provided should be in text format.  This is easier to analyze than screen shots.</t>
   </si>
 </sst>
 </file>
@@ -559,7 +760,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +788,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -783,55 +1008,103 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,62 +1143,173 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,10 +1628,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="B1:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -1262,48 +1646,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="2:8" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1312,9 +1696,9 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1323,9 +1707,9 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="12" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1334,9 +1718,9 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1345,9 +1729,9 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1356,9 +1740,9 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1367,9 +1751,9 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1378,9 +1762,9 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="12" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1389,9 +1773,9 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="12" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1400,9 +1784,9 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="12" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1411,9 +1795,9 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="12" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1422,9 +1806,9 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1433,930 +1817,1613 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="35" t="s">
+      <c r="B17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="41">
+        <v>1</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="H18" s="46"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="41">
+        <v>1</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="30">
+        <v>2</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="H22" s="12"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="37">
+        <v>3</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="37">
+        <v>3</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="30">
+        <v>4</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="25">
+      <c r="H25" s="12"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="30">
+        <v>5</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="30">
+        <v>6</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:8" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="2:8" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B38" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="35">
-        <v>1</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16">
-        <v>2</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="21">
-        <v>3</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="21">
-        <v>3</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="16">
-        <v>4</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16">
-        <v>5</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="16">
-        <v>6</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:13" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
-      <c r="C31" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="2:13" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
-      <c r="C32" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="2:8" s="51" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="12" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="12" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="12" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="12" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="12" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="12" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="12" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="12" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="12" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="E58" s="11"/>
       <c r="F58" s="12" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C59" s="11"/>
-      <c r="D59" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="12" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="12" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="12" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="12" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="12" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="13" t="s">
+    <row r="65" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+    <row r="67" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="B68" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="54"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="67"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="79"/>
+      <c r="C79" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="73"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="79"/>
+      <c r="C80" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="73"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="79"/>
+      <c r="C81" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="73"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="79"/>
+      <c r="C82" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="73"/>
+    </row>
+    <row r="83" spans="2:8" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="80"/>
+      <c r="C83" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="77"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="55">
+        <v>2</v>
+      </c>
+      <c r="C84" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+    </row>
+    <row r="85" spans="2:8" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="58"/>
+      <c r="C85" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="62"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="58"/>
+      <c r="C86" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="62"/>
+    </row>
+    <row r="87" spans="2:8" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="58"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="62"/>
+    </row>
+    <row r="89" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="63"/>
+      <c r="C89" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="62"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="81">
+        <v>3</v>
+      </c>
+      <c r="C90" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="84"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="85"/>
+      <c r="C91" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="84"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="85"/>
+      <c r="C92" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="84"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="85"/>
+      <c r="C93" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="84"/>
+    </row>
+    <row r="94" spans="2:8" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="85"/>
+      <c r="C94" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="84"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="85"/>
+      <c r="C95" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="84"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="85"/>
+      <c r="C96" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="84"/>
+    </row>
+    <row r="97" spans="2:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="88"/>
+      <c r="C97" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="84"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="67"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="55">
+        <v>1</v>
+      </c>
+      <c r="C99" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="90"/>
+      <c r="E99" s="90"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="90"/>
+      <c r="H99" s="91"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="92"/>
+      <c r="C100" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="62"/>
+    </row>
+    <row r="101" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="92"/>
+      <c r="C101" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="62"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="92"/>
+      <c r="C102" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="62"/>
+    </row>
+    <row r="103" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="92"/>
+      <c r="C103" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="62"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="92"/>
+      <c r="C104" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="62"/>
+    </row>
+    <row r="105" spans="2:8" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="93"/>
+      <c r="C105" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="62"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="78">
+        <v>2</v>
+      </c>
+      <c r="C106" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="73"/>
+    </row>
+    <row r="107" spans="2:8" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="94"/>
+      <c r="C107" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="96"/>
+    </row>
+    <row r="108" spans="2:8" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="94"/>
+      <c r="C108" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="95"/>
+      <c r="H108" s="96"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="94"/>
+      <c r="C109" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109" s="95"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
+      <c r="H109" s="96"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="94"/>
+      <c r="C110" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" s="95"/>
+      <c r="F110" s="95"/>
+      <c r="G110" s="95"/>
+      <c r="H110" s="96"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="97"/>
+      <c r="C111" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" s="95"/>
+      <c r="F111" s="95"/>
+      <c r="G111" s="95"/>
+      <c r="H111" s="96"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="67"/>
+    </row>
+    <row r="113" spans="2:8" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="98">
+        <v>1</v>
+      </c>
+      <c r="C113" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" s="100"/>
+      <c r="E113" s="100"/>
+      <c r="F113" s="100"/>
+      <c r="G113" s="100"/>
+      <c r="H113" s="100"/>
+    </row>
+    <row r="114" spans="2:8" ht="27.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="101"/>
+      <c r="C114" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D114" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E114" s="102"/>
+      <c r="F114" s="102"/>
+      <c r="G114" s="102"/>
+      <c r="H114" s="102"/>
+    </row>
+    <row r="115" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="103">
+        <v>2</v>
+      </c>
+      <c r="C115" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="94"/>
+      <c r="C116" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="94"/>
+      <c r="C117" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="97"/>
+      <c r="C118" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="146">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
+  <mergeCells count="195">
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:H67"/>
     <mergeCell ref="B68:E68"/>
     <mergeCell ref="F68:H68"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E25:F27"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="F70:H70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -2369,108 +3436,49 @@
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:H72"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <pageSetup scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="15" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
+    <brk id="65" max="16383" man="1"/>
+    <brk id="75" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/KasaDevices/Documentation.xlsx
+++ b/KasaDevices/Documentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\0 - Hubitat\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - HubitatActive\KasaDevices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A471C-678C-4B50-89CA-8D10356C8103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD6577D-0913-4C8C-B738-E5E0476B3B62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5312" yWindow="231" windowWidth="19440" windowHeight="13857" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hubitat Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$118</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="209">
   <si>
     <t>Preferences</t>
   </si>
@@ -720,12 +720,15 @@
   <si>
     <t>Data provided should be in text format.  This is easier to analyze than screen shots.</t>
   </si>
+  <si>
+    <t>Kasa Integration Installation, Reference, and Troubleshooting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +758,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -997,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1029,17 +1039,230 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1050,6 +1273,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,13 +1291,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,239 +1309,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,10 +1641,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="B1:H118"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D119" sqref="B1:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -1645,394 +1658,390 @@
     <col min="11" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:8" ht="25.15" x14ac:dyDescent="0.25">
+      <c r="B1" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="2:8" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="2:8" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+    </row>
+    <row r="5" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="92">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="2:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+    </row>
+    <row r="6" spans="2:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="93"/>
+      <c r="C6" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="93"/>
+      <c r="C7" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+    </row>
+    <row r="8" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="93"/>
+      <c r="C8" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+    </row>
+    <row r="9" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="93"/>
+      <c r="C9" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+    </row>
+    <row r="10" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="93"/>
+      <c r="C10" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="93"/>
+      <c r="C11" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+    </row>
+    <row r="12" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="93"/>
+      <c r="C12" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="93"/>
+      <c r="C13" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="93"/>
+      <c r="C14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="93"/>
+      <c r="C15" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="94"/>
+      <c r="C16" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="21" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="21" t="s">
+      <c r="F18" s="82"/>
+      <c r="G18" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="H18" s="82"/>
+    </row>
+    <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E19" s="76">
         <v>1</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="45" t="s">
+      <c r="F19" s="77"/>
+      <c r="G19" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
+      <c r="H19" s="79"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="41">
-        <v>1</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="46"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="B21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="76">
+        <v>1</v>
+      </c>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="79"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="30">
-        <v>2</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="12"/>
+    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="37">
-        <v>3</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="40"/>
+      <c r="E23" s="71">
+        <v>2</v>
+      </c>
+      <c r="F23" s="71"/>
+      <c r="G23" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="67"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="37">
+      <c r="B24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="74">
         <v>3</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="40"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="73"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="30">
-        <v>4</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="12"/>
+    <row r="25" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="74">
+        <v>3</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="73"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="71">
+        <v>4</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="67"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -2040,20 +2049,14 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="30">
-        <v>5</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="12"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -2061,22 +2064,20 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="30">
-        <v>6</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="71">
+        <v>5</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="67"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -2084,1347 +2085,1263 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="E30" s="71">
+        <v>6</v>
+      </c>
+      <c r="F30" s="71"/>
+      <c r="G30" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="67"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="92">
         <v>2</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="93"/>
+      <c r="C33" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="93"/>
+      <c r="C34" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="2:8" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="2:8" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="93"/>
+      <c r="C35" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="94"/>
+      <c r="C36" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51"/>
-    </row>
-    <row r="37" spans="2:8" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
+    </row>
+    <row r="38" spans="2:8" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88"/>
+    </row>
+    <row r="39" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B39" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30" t="s">
+      <c r="E39" s="71"/>
+      <c r="F39" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+    </row>
+    <row r="41" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12" t="s">
+      <c r="E41" s="66"/>
+      <c r="F41" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12" t="s">
+      <c r="E42" s="66"/>
+      <c r="F42" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12" t="s">
+      <c r="E43" s="66"/>
+      <c r="F43" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12" t="s">
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+    </row>
+    <row r="45" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+    </row>
+    <row r="46" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11" t="s">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12" t="s">
+      <c r="E46" s="66"/>
+      <c r="F46" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12" t="s">
+      <c r="E47" s="66"/>
+      <c r="F47" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11" t="s">
+      <c r="C48" s="66"/>
+      <c r="D48" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12" t="s">
+      <c r="E48" s="66"/>
+      <c r="F48" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12" t="s">
+      <c r="E49" s="66"/>
+      <c r="F49" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+    </row>
+    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="30" t="s">
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="70"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
+      <c r="C51" s="71"/>
+      <c r="D51" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30" t="s">
+      <c r="E51" s="71"/>
+      <c r="F51" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-    </row>
-    <row r="51" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="11" t="s">
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+    </row>
+    <row r="52" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11" t="s">
+      <c r="C52" s="66"/>
+      <c r="D52" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12" t="s">
+      <c r="E52" s="66"/>
+      <c r="F52" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
+      <c r="C53" s="66"/>
+      <c r="D53" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12" t="s">
+      <c r="E53" s="66"/>
+      <c r="F53" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
+      <c r="C54" s="66"/>
+      <c r="D54" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12" t="s">
+      <c r="E54" s="66"/>
+      <c r="F54" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12" t="s">
+      <c r="E55" s="66"/>
+      <c r="F55" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12" t="s">
+      <c r="E56" s="66"/>
+      <c r="F56" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12" t="s">
+      <c r="E57" s="66"/>
+      <c r="F57" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+    </row>
+    <row r="58" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
+      <c r="C58" s="66"/>
+      <c r="D58" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12" t="s">
+      <c r="E58" s="66"/>
+      <c r="F58" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
+      <c r="C59" s="66"/>
+      <c r="D59" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12" t="s">
+      <c r="E59" s="66"/>
+      <c r="F59" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12" t="s">
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11" t="s">
+      <c r="C61" s="66"/>
+      <c r="D61" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12" t="s">
+      <c r="E61" s="66"/>
+      <c r="F61" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11" t="s">
+      <c r="C62" s="66"/>
+      <c r="D62" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12" t="s">
+      <c r="E63" s="66"/>
+      <c r="F63" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11" t="s">
+      <c r="C64" s="66"/>
+      <c r="D64" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12" t="s">
+      <c r="E64" s="66"/>
+      <c r="F64" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11" t="s">
+      <c r="C65" s="66"/>
+      <c r="D65" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12" t="s">
+      <c r="E65" s="66"/>
+      <c r="F65" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+    </row>
+    <row r="66" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
+      <c r="C66" s="66"/>
+      <c r="D66" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12" t="s">
+      <c r="E66" s="66"/>
+      <c r="F66" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="27" t="s">
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="70"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14" t="s">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+    </row>
+    <row r="70" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="14" t="s">
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14" t="s">
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-    </row>
-    <row r="71" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+    </row>
+    <row r="72" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14" t="s">
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+    </row>
+    <row r="73" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14" t="s">
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+    </row>
+    <row r="74" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14" t="s">
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+    </row>
+    <row r="75" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14" t="s">
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-    </row>
-    <row r="75" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+    </row>
+    <row r="76" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="14" t="s">
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="52" t="s">
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="54"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="65" t="s">
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="63"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="67"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="78">
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="38">
         <v>1</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C79" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="79"/>
-      <c r="C79" s="68" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="59"/>
+      <c r="C80" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D80" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="73"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="79"/>
-      <c r="C80" s="68" t="s">
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="59"/>
+      <c r="C81" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D81" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="73"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="79"/>
-      <c r="C81" s="74" t="s">
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="34"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="59"/>
+      <c r="C82" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D82" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="73"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="79"/>
-      <c r="C82" s="68" t="s">
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="59"/>
+      <c r="C83" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="71" t="s">
+      <c r="D83" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="73"/>
-    </row>
-    <row r="83" spans="2:8" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="80"/>
-      <c r="C83" s="68" t="s">
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="2:8" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="60"/>
+      <c r="C84" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D83" s="75" t="s">
+      <c r="D84" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="77"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="55">
-        <v>2</v>
-      </c>
-      <c r="C84" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="57"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-    </row>
-    <row r="85" spans="2:8" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
-      <c r="C85" s="59" t="s">
+      <c r="H84" s="58"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="29">
+        <v>2</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="2:8" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="48"/>
+      <c r="C86" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D86" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="62"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
-      <c r="C86" s="55" t="s">
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="47"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="48"/>
+      <c r="C87" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D86" s="60" t="s">
+      <c r="D87" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="62"/>
-    </row>
-    <row r="87" spans="2:8" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="60" t="s">
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="47"/>
+    </row>
+    <row r="88" spans="2:8" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="60" t="s">
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="47"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="48"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
-    </row>
-    <row r="89" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="63"/>
-      <c r="C89" s="64" t="s">
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="47"/>
+    </row>
+    <row r="90" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="49"/>
+      <c r="C90" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D89" s="60" t="s">
+      <c r="D90" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="62"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="81">
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="47"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="53">
         <v>3</v>
       </c>
-      <c r="C90" s="82" t="s">
+      <c r="C91" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="84"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="85"/>
-      <c r="C91" s="86" t="s">
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="52"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="54"/>
+      <c r="C92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="87" t="s">
+      <c r="D92" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="84"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="85"/>
-      <c r="C92" s="86" t="s">
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="52"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="54"/>
+      <c r="C93" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="87" t="s">
+      <c r="D93" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="84"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="85"/>
-      <c r="C93" s="86" t="s">
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="52"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="54"/>
+      <c r="C94" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="87" t="s">
+      <c r="D94" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="84"/>
-    </row>
-    <row r="94" spans="2:8" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="85"/>
-      <c r="C94" s="86" t="s">
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="52"/>
+    </row>
+    <row r="95" spans="2:8" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="54"/>
+      <c r="C95" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D94" s="87" t="s">
+      <c r="D95" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="84"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="85"/>
-      <c r="C95" s="86" t="s">
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="52"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="54"/>
+      <c r="C96" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="87" t="s">
+      <c r="D96" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="84"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="85"/>
-      <c r="C96" s="86" t="s">
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="52"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="54"/>
+      <c r="C97" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D96" s="87" t="s">
+      <c r="D97" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="84"/>
-    </row>
-    <row r="97" spans="2:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="88"/>
-      <c r="C97" s="86" t="s">
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="52"/>
+    </row>
+    <row r="98" spans="2:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="55"/>
+      <c r="C98" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="87" t="s">
+      <c r="D98" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="84"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="65" t="s">
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="52"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="67"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="55">
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="29">
         <v>1</v>
       </c>
-      <c r="C99" s="89" t="s">
+      <c r="C100" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="91"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="92"/>
-      <c r="C100" s="59" t="s">
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="44"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="30"/>
+      <c r="C101" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="60" t="s">
+      <c r="D101" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="62"/>
-    </row>
-    <row r="101" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="92"/>
-      <c r="C101" s="59" t="s">
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="47"/>
+    </row>
+    <row r="102" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="30"/>
+      <c r="C102" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D101" s="60" t="s">
+      <c r="D102" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="62"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="92"/>
-      <c r="C102" s="59" t="s">
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="47"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="30"/>
+      <c r="C103" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="D103" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="62"/>
-    </row>
-    <row r="103" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="92"/>
-      <c r="C103" s="59" t="s">
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="47"/>
+    </row>
+    <row r="104" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="30"/>
+      <c r="C104" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D103" s="60" t="s">
+      <c r="D104" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="62"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="92"/>
-      <c r="C104" s="59" t="s">
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="47"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="30"/>
+      <c r="C105" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D104" s="60" t="s">
+      <c r="D105" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="62"/>
-    </row>
-    <row r="105" spans="2:8" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="93"/>
-      <c r="C105" s="59" t="s">
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="47"/>
+    </row>
+    <row r="106" spans="2:8" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="31"/>
+      <c r="C106" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D106" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="62"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="78">
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="47"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="38">
         <v>2</v>
       </c>
-      <c r="C106" s="71" t="s">
+      <c r="C107" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="73"/>
-    </row>
-    <row r="107" spans="2:8" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="94"/>
-      <c r="C107" s="68" t="s">
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="34"/>
+    </row>
+    <row r="108" spans="2:8" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="27"/>
+      <c r="C108" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D107" s="75" t="s">
+      <c r="D108" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="96"/>
-    </row>
-    <row r="108" spans="2:8" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="94"/>
-      <c r="C108" s="68" t="s">
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="37"/>
+    </row>
+    <row r="109" spans="2:8" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="27"/>
+      <c r="C109" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="75" t="s">
+      <c r="D109" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="95"/>
-      <c r="H108" s="96"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="94"/>
-      <c r="C109" s="68" t="s">
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="37"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="27"/>
+      <c r="C110" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D110" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
-      <c r="H109" s="96"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="94"/>
-      <c r="C110" s="68" t="s">
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="37"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="27"/>
+      <c r="C111" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D111" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
-      <c r="G110" s="95"/>
-      <c r="H110" s="96"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="97"/>
-      <c r="C111" s="68" t="s">
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="37"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="28"/>
+      <c r="C112" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="75" t="s">
+      <c r="D112" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="95"/>
-      <c r="H111" s="96"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="65" t="s">
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="37"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="67"/>
-    </row>
-    <row r="113" spans="2:8" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="98">
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="41"/>
+    </row>
+    <row r="114" spans="2:8" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="23">
         <v>1</v>
       </c>
-      <c r="C113" s="99" t="s">
+      <c r="C114" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="100"/>
-      <c r="G113" s="100"/>
-      <c r="H113" s="100"/>
-    </row>
-    <row r="114" spans="2:8" ht="27.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="101"/>
-      <c r="C114" s="86" t="s">
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+    </row>
+    <row r="115" spans="2:8" ht="27.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="24"/>
+      <c r="C115" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D114" s="99" t="s">
+      <c r="D115" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E114" s="102"/>
-      <c r="F114" s="102"/>
-      <c r="G114" s="102"/>
-      <c r="H114" s="102"/>
-    </row>
-    <row r="115" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="103">
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="26">
         <v>2</v>
       </c>
-      <c r="C115" s="69" t="s">
+      <c r="C116" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="94"/>
-      <c r="C116" s="68" t="s">
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="27"/>
+      <c r="C117" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="104" t="s">
+      <c r="D117" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="94"/>
-      <c r="C117" s="68" t="s">
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="27"/>
+      <c r="C118" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D117" s="104" t="s">
+      <c r="D118" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="97"/>
-      <c r="C118" s="68" t="s">
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="28"/>
+      <c r="C119" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="104" t="s">
+      <c r="D119" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
+  <mergeCells count="196">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E25:F27"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C36:H36"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -3436,49 +3353,157 @@
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="G26:H28"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="15" max="16383" man="1"/>
-    <brk id="35" max="16383" man="1"/>
-    <brk id="65" max="16383" man="1"/>
-    <brk id="75" max="16383" man="1"/>
+    <brk id="16" max="16383" man="1"/>
+    <brk id="36" max="16383" man="1"/>
+    <brk id="66" max="16383" man="1"/>
+    <brk id="76" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/KasaDevices/Documentation.xlsx
+++ b/KasaDevices/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A50B0B-4B68-4738-8B4F-56B61C615FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31850F6-EB8B-409C-87E9-B17F0AAF0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24589" windowHeight="14549" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16886" windowHeight="14549" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Install" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Application Description'!$B$1:$H$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Preferences'!$B$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Troubleshooting!$B$1:$H$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update Instructions'!$B$1:$H$9</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
   <si>
     <t>Note</t>
   </si>
@@ -1534,6 +1534,9 @@
   </si>
   <si>
     <t>Application and Driver File Links</t>
+  </si>
+  <si>
+    <t>To use these links, download the XLS version of the file.</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1832,6 +1835,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,18 +1895,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1889,42 +1937,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1934,56 +1946,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2009,14 +2030,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2027,32 +2054,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2690,10 +2702,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H49"/>
+  <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -2707,360 +2719,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="2:8" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="2:8" ht="36.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="2:8" ht="105.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="17" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="17" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="2:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>5</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
@@ -3072,173 +3084,163 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-    </row>
-    <row r="39" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="89" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="93"/>
+    </row>
+    <row r="40" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-    </row>
-    <row r="40" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="89" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-    </row>
-    <row r="41" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="89" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-    </row>
-    <row r="42" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="89" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-    </row>
-    <row r="43" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="89" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-    </row>
-    <row r="44" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="89" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-    </row>
-    <row r="45" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="89" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-    </row>
-    <row r="46" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="89" t="s">
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="90" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-    </row>
-    <row r="47" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="89" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-    </row>
-    <row r="48" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="89" t="s">
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+  <mergeCells count="34">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="F23:H35"/>
@@ -3251,18 +3253,40 @@
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:H39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
-    <hyperlink ref="D40" r:id="rId2" xr:uid="{A75C0035-2CD4-4BDA-A0B2-8B78E0C29A4F}"/>
-    <hyperlink ref="D41" r:id="rId3" xr:uid="{30C9E6A8-AAC4-4002-BA82-B2776924D25C}"/>
-    <hyperlink ref="D42" r:id="rId4" xr:uid="{DFBEAAD4-E9D4-4108-A13B-C3049487DC1C}"/>
-    <hyperlink ref="D43" r:id="rId5" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
-    <hyperlink ref="D44" r:id="rId6" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
-    <hyperlink ref="D45" r:id="rId7" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
-    <hyperlink ref="D46" r:id="rId8" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
-    <hyperlink ref="D47" r:id="rId9" xr:uid="{34240BEF-D2DD-4AEE-B1E0-A1BEC1C8A8B1}"/>
-    <hyperlink ref="D48" r:id="rId10" xr:uid="{4CBB3D28-42F6-441C-B0BC-A45B43E6CDA5}"/>
+    <hyperlink ref="D40" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
+    <hyperlink ref="D41" r:id="rId2" xr:uid="{A75C0035-2CD4-4BDA-A0B2-8B78E0C29A4F}"/>
+    <hyperlink ref="D42" r:id="rId3" xr:uid="{30C9E6A8-AAC4-4002-BA82-B2776924D25C}"/>
+    <hyperlink ref="D43" r:id="rId4" xr:uid="{DFBEAAD4-E9D4-4108-A13B-C3049487DC1C}"/>
+    <hyperlink ref="D44" r:id="rId5" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
+    <hyperlink ref="D45" r:id="rId6" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
+    <hyperlink ref="D46" r:id="rId7" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
+    <hyperlink ref="D47" r:id="rId8" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
+    <hyperlink ref="D48" r:id="rId9" xr:uid="{34240BEF-D2DD-4AEE-B1E0-A1BEC1C8A8B1}"/>
+    <hyperlink ref="D49" r:id="rId10" xr:uid="{4CBB3D28-42F6-441C-B0BC-A45B43E6CDA5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -3296,115 +3320,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="2:8" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:8" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="2:8" s="11" customFormat="1" ht="102.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="2:8" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" spans="2:8" s="11" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3448,26 +3472,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:8" s="9" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="57"/>
@@ -3486,10 +3510,10 @@
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
       <c r="F4" s="62"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60"/>
@@ -3519,10 +3543,10 @@
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
       <c r="F7" s="62"/>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="60"/>
@@ -3530,10 +3554,10 @@
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="60"/>
@@ -3541,8 +3565,8 @@
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="60"/>
@@ -3550,10 +3574,10 @@
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="62"/>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="60"/>
@@ -3561,8 +3585,8 @@
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
       <c r="F11" s="62"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="60"/>
@@ -3570,8 +3594,8 @@
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
       <c r="F12" s="62"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="60"/>
@@ -3579,8 +3603,8 @@
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="60"/>
@@ -3588,8 +3612,8 @@
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
       <c r="F14" s="62"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="60"/>
@@ -3597,8 +3621,8 @@
       <c r="D15" s="61"/>
       <c r="E15" s="61"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="60"/>
@@ -3606,10 +3630,10 @@
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="47"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="60"/>
@@ -3617,10 +3641,10 @@
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
       <c r="F17" s="62"/>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="47"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="60"/>
@@ -3628,10 +3652,10 @@
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="60"/>
@@ -3639,10 +3663,10 @@
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
       <c r="F19" s="62"/>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="63"/>
@@ -3650,286 +3674,273 @@
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="65"/>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="49"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="56"/>
     </row>
     <row r="23" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="17" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="22"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="22"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="2:8" ht="50.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="32" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="17" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="22"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="22"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="17" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="17" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="25"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="54"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="56"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="48" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="50"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="48" t="s">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="50"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="17" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="22"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="22"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="25"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="17" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="19"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="22"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="31"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="22"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="31"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B3:F20"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G10:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:H21"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G39:H42"/>
     <mergeCell ref="G43:H45"/>
@@ -3946,6 +3957,19 @@
     <mergeCell ref="G23:H25"/>
     <mergeCell ref="G27:H30"/>
     <mergeCell ref="G31:H32"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B3:F20"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -3978,392 +4002,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32" t="s">
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="32"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32" t="s">
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75" t="s">
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="75"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="2:8" s="1" customFormat="1" ht="81.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32" t="s">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32" t="s">
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32" t="s">
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32" t="s">
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="2:8" s="1" customFormat="1" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32" t="s">
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="2:8" s="1" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32" t="s">
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B18:H18"/>
@@ -4380,61 +4459,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4466,179 +4490,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="2:8" s="13" customFormat="1" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:8" s="13" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="2:8" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="45" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -4655,13 +4686,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4693,198 +4717,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="C7:H7"/>
@@ -4892,8 +4912,12 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>

--- a/KasaDevices/Documentation.xlsx
+++ b/KasaDevices/Documentation.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31850F6-EB8B-409C-87E9-B17F0AAF0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D784B7-8E04-41D0-92E4-B3DD2BA3E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16886" windowHeight="14549" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="2309" yWindow="-190" windowWidth="14360" windowHeight="10773" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
-    <sheet name="Install" sheetId="2" r:id="rId1"/>
-    <sheet name="Update Instructions" sheetId="5" r:id="rId2"/>
-    <sheet name="Application Description" sheetId="3" r:id="rId3"/>
-    <sheet name="Device Capabilities" sheetId="6" r:id="rId4"/>
-    <sheet name="Device Preferences" sheetId="4" r:id="rId5"/>
-    <sheet name="Troubleshooting" sheetId="1" r:id="rId6"/>
+    <sheet name="6_5_2 Changes" sheetId="7" r:id="rId1"/>
+    <sheet name="Install" sheetId="2" r:id="rId2"/>
+    <sheet name="Update Instructions" sheetId="5" r:id="rId3"/>
+    <sheet name="Application Description" sheetId="3" r:id="rId4"/>
+    <sheet name="Device Capabilities" sheetId="6" r:id="rId5"/>
+    <sheet name="Device Preferences" sheetId="4" r:id="rId6"/>
+    <sheet name="Troubleshooting" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Application Description'!$B$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Preferences'!$B$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Troubleshooting!$B$1:$H$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Update Instructions'!$B$1:$H$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6_5_2 Changes'!$A$1:$C$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Application Description'!$B$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Capabilities'!$B$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Device Preferences'!$B$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Install!$B$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Troubleshooting!$B$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Update Instructions'!$B$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
   <si>
     <t>Note</t>
   </si>
@@ -911,9 +913,6 @@
     <t>Light Strips / Create strip presets with name based on current settings.  Command preset by Name.  Coordinate presets with other light strips.  Execute through rule machine or other means. Presets are stored in state effectPresets.</t>
   </si>
   <si>
-    <t>Color Bulb, CT Bulb</t>
-  </si>
-  <si>
     <t>All bulbs, Light Strip</t>
   </si>
   <si>
@@ -1491,9 +1490,6 @@
     <t>https://raw.githubusercontent.com/DaveGut/HubitatActive/master/KasaDevices/DeviceDrivers/WhiteBulb.groovy</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/DaveGut/HubitatActive/master/KasaDevices/DeviceDrivers/EM-Multi-Plug.groovy</t>
-  </si>
-  <si>
     <t>Kasa App</t>
   </si>
   <si>
@@ -1503,47 +1499,322 @@
     <t>https://github.com/DaveGut/HubitatActive/blob/master/KasaDevices/DeviceDrivers/DimmingSwitch.groovy</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/DaveGut/HubitatActive/master/KasaDevices/DeviceDrivers/EM-Plug.groovy</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/DaveGut/HubitatActive/master/KasaDevices/DeviceDrivers/ColorBulb.groovy</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/DaveGut/HubitatActive/master/KasaDevices/DeviceDrivers/LightStrip.groovy</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/DaveGut/HubitatActive/master/KasaDevices/DeviceDrivers/Multi-Plug.groovy</t>
-  </si>
-  <si>
-    <t>Plug Switch</t>
-  </si>
-  <si>
-    <t>EM Plug</t>
-  </si>
-  <si>
     <t>CT Bulb</t>
   </si>
   <si>
     <t>Mono Bulb</t>
   </si>
   <si>
-    <t>MultiPlug</t>
-  </si>
-  <si>
-    <t>EM MultiPlug</t>
-  </si>
-  <si>
     <t>Application and Driver File Links</t>
   </si>
   <si>
     <t>To use these links, download the XLS version of the file.</t>
+  </si>
+  <si>
+    <t>All Plug Switch except Dimming Switch</t>
+  </si>
+  <si>
+    <t>Color Bulb, Light Strip</t>
+  </si>
+  <si>
+    <t>Color Bulb, CT Bulb, Light Strip</t>
+  </si>
+  <si>
+    <t>Version 6.5.2 Changes</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Impacts</t>
+  </si>
+  <si>
+    <t>Back to a preference to allow turning off.</t>
+  </si>
+  <si>
+    <t>EM Devices</t>
+  </si>
+  <si>
+    <t>All Devices</t>
+  </si>
+  <si>
+    <t>All Devices
+App</t>
+  </si>
+  <si>
+    <t>Changed to better match Kasa Phone app for fadeOn / Off.</t>
+  </si>
+  <si>
+    <t>Color Bulb
+Light Switch</t>
+  </si>
+  <si>
+    <t>Added new (to capability color) attribute RGB.
+Added custom command "Set RGB" to allow controlling the device from RGB data.</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>1. Added ping for two non-Kasa devices (recommend other Hub and wifi Router as other two.
+2. Added ping selection of all devices in the app data base with selection of multiple devices available.</t>
+  </si>
+  <si>
+    <t>Modified to eliminate end-of-year loop potential.
+Change power reporting to 1 watt vice previous .1 watt reporting.
+If device off, initial sets power to 0; then, will not get power on updates until device is on again. (reduce Hub load)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added device connectivity testing and reporting to the two APP device list pages. </t>
+  </si>
+  <si>
+    <t>Information Logging
+(user request)</t>
+  </si>
+  <si>
+    <t>Energy Monitor 
+(reduce Hub Load)</t>
+  </si>
+  <si>
+    <t>Dimming Switch preferences
+(Code correction)</t>
+  </si>
+  <si>
+    <t>Checks Driver/App versions and notifies if an issue.
+Updated critical data from previous version.
+App name adds "Update Available" if there are updates.
+Run on ANY device or Run/Exit App to update all devices.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manually add Kasa Devices</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to App/Devices
+(Installation reliability)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attribute RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(new attribute to capability)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>App Device Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(troubleshooting)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>App Ping Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(troubleshooting)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Installation Help</t>
+    </r>
+  </si>
+  <si>
+    <t>Application Changes</t>
+  </si>
+  <si>
+    <t>App and Driver Change</t>
+  </si>
+  <si>
+    <t>Driver Changes</t>
+  </si>
+  <si>
+    <t>Manually add devices with a single segment, list of device addresses, and single port.  Attempts up to three times to detect device (to alleviate apparent Kasa wifi sleep problem).</t>
+  </si>
+  <si>
+    <t>Short-form installation instructions.</t>
+  </si>
+  <si>
+    <t>NOTE: This version requires Hubitat Version 2.3.1 or later.</t>
+  </si>
+  <si>
+    <t>Use multi-IP-UDP to shorted discovery time and reduce conflicts.  This change requires Hubitat Ver. 2.3.1!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Added use of multi-IP-UDP Support - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scan LAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Device Lists</t>
+    </r>
+  </si>
+  <si>
+    <t>Added discovery of the Kasa IP Camera.  Currently, not supported for adding as a device; however, driver is in-work.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kasa Camera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Discovery</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1594,8 +1865,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1623,6 +1910,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,7 +2084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1835,6 +2134,144 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1844,98 +2281,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1946,15 +2302,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1985,17 +2353,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2006,29 +2386,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2039,32 +2410,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2698,14 +3045,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FC7E-86F3-4E8F-B488-D1BDD385F89C}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175773B-5D62-4B76-99E0-4AEF1C2A30DF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H50"/>
+  <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -2719,360 +3357,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="36.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="105.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="26" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="26" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>5</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
     </row>
     <row r="37" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
@@ -3084,163 +3722,140 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="B38" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="93"/>
+      <c r="B39" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+    </row>
+    <row r="41" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+    </row>
+    <row r="42" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="18" t="s">
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+    </row>
+    <row r="43" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+    </row>
+    <row r="44" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="18" t="s">
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+    </row>
+    <row r="45" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+    </row>
+    <row r="46" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="65"/>
+      <c r="D46" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="28">
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="F23:H35"/>
@@ -3253,52 +3868,27 @@
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:H39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D40" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
     <hyperlink ref="D41" r:id="rId2" xr:uid="{A75C0035-2CD4-4BDA-A0B2-8B78E0C29A4F}"/>
     <hyperlink ref="D42" r:id="rId3" xr:uid="{30C9E6A8-AAC4-4002-BA82-B2776924D25C}"/>
-    <hyperlink ref="D43" r:id="rId4" xr:uid="{DFBEAAD4-E9D4-4108-A13B-C3049487DC1C}"/>
-    <hyperlink ref="D44" r:id="rId5" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
-    <hyperlink ref="D45" r:id="rId6" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
-    <hyperlink ref="D46" r:id="rId7" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
-    <hyperlink ref="D47" r:id="rId8" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
-    <hyperlink ref="D48" r:id="rId9" xr:uid="{34240BEF-D2DD-4AEE-B1E0-A1BEC1C8A8B1}"/>
-    <hyperlink ref="D49" r:id="rId10" xr:uid="{4CBB3D28-42F6-441C-B0BC-A45B43E6CDA5}"/>
+    <hyperlink ref="D43" r:id="rId4" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
+    <hyperlink ref="D44" r:id="rId5" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
+    <hyperlink ref="D45" r:id="rId6" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
+    <hyperlink ref="D46" r:id="rId7" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="5" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId8"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90077FA-6F15-4542-AD97-4885B94E3224}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3306,7 +3896,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -3320,115 +3910,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:8" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="2:8" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="2:8" s="11" customFormat="1" ht="102.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="2:8" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="2:8" s="11" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3448,7 +4038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F803F02-C8AC-4CC5-80AD-5B4704600943}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3472,475 +4062,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" s="9" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="66" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="2:8" s="9" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="27" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="45" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="27" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="27" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="52" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="45" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="45" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="45" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="51" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="52"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="55" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="56"/>
+      <c r="H22" s="78"/>
     </row>
     <row r="23" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="26" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="31"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="2:8" ht="50.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="47" t="s">
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="26" t="s">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="31"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="31"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="26" t="s">
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="28"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="34"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="26" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="28"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="34"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="69"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="55" t="s">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="56"/>
+      <c r="H36" s="78"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="51" t="s">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="53"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="51" t="s">
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="53"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="26" t="s">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="28"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="31"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="31"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="34"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="26" t="s">
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="28"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="31"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="31"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B3:F20"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G39:H42"/>
     <mergeCell ref="G43:H45"/>
@@ -3957,19 +4560,6 @@
     <mergeCell ref="G23:H25"/>
     <mergeCell ref="G27:H30"/>
     <mergeCell ref="G31:H32"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B3:F20"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G10:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -3978,15 +4568,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9DC0BE-8392-4C92-863D-C9E7F0393057}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -4002,423 +4592,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="47"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="47" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B8" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B10" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B14" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="59"/>
+    </row>
+    <row r="18" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B18" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B19" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B20" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="97"/>
+    </row>
+    <row r="21" spans="2:8" s="1" customFormat="1" ht="81.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="91"/>
+      <c r="D21" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47" t="s">
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="59"/>
+    </row>
+    <row r="22" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="91"/>
+      <c r="D22" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="59"/>
+    </row>
+    <row r="24" spans="2:8" s="1" customFormat="1" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="91"/>
+      <c r="D24" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B18" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-    </row>
-    <row r="19" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B20" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="81"/>
-    </row>
-    <row r="21" spans="2:8" s="1" customFormat="1" ht="81.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="2:8" s="1" customFormat="1" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="47" t="s">
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="91"/>
+      <c r="D25" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="47"/>
-    </row>
-    <row r="25" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="47" t="s">
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="2:8" s="1" customFormat="1" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="91"/>
+      <c r="D26" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="2:8" s="1" customFormat="1" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="47" t="s">
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="2:8" s="1" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="47"/>
-    </row>
-    <row r="27" spans="2:8" s="1" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47" t="s">
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:H27"/>
@@ -4435,30 +5018,37 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4466,7 +5056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF61FE2-234F-4A2F-B570-BB8F1A47FEF3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4490,186 +5080,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="2:8" s="13" customFormat="1" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="2:8" s="13" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="2:8" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="44" t="s">
+      <c r="C14" s="105"/>
+      <c r="D14" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -4686,6 +5269,13 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4693,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7478727F-8C1A-4545-87B8-4BF3136DD96E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4717,192 +5307,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
@@ -4912,12 +5508,6 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>

--- a/KasaDevices/Documentation.xlsx
+++ b/KasaDevices/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D784B7-8E04-41D0-92E4-B3DD2BA3E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C9E67-0D4B-4D15-8CD3-372C7D892313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2309" yWindow="-190" windowWidth="14360" windowHeight="10773" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="4741" yWindow="190" windowWidth="19277" windowHeight="11928" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="6_5_2 Changes" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Troubleshooting" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6_5_2 Changes'!$A$1:$C$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6_5_2 Changes'!$A$1:$C$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Application Description'!$B$1:$H$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Capabilities'!$B$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Device Preferences'!$B$1:$H$14</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="201">
   <si>
     <t>Note</t>
   </si>
@@ -1808,6 +1808,24 @@
       </rPr>
       <t xml:space="preserve"> Discovery</t>
     </r>
+  </si>
+  <si>
+    <t>Version 6.5.3 Changes</t>
+  </si>
+  <si>
+    <t>SendEvent(switch)</t>
+  </si>
+  <si>
+    <t>Updated to send on each successful poll().  Will update Hubitat lastActivity for device (used in some status apps).</t>
+  </si>
+  <si>
+    <t>Preference syncName(device)</t>
+  </si>
+  <si>
+    <t>Multi Plugs</t>
+  </si>
+  <si>
+    <t>Fixed error precluding proper processing of the device's resident alias to update Hubitat name for the device.</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2179,6 +2197,27 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2272,27 +2311,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2302,56 +2320,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2377,14 +2404,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2395,23 +2428,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3046,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FC7E-86F3-4E8F-B488-D1BDD385F89C}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3062,195 +3083,217 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B8" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B10" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="11" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B11" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="12" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B12" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C12" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="13" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B13" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="14" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="15" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B17" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B19" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="20" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="21" spans="1:3" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B21" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="22" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
@@ -3322,13 +3365,40 @@
       <c r="B36" s="21"/>
       <c r="C36" s="19"/>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3357,360 +3427,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:8" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="36.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="2:8" ht="105.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="38" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="38" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="2:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>5</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="58"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
@@ -3722,117 +3792,117 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="68"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="34"/>
+      <c r="D40" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="38"/>
+      <c r="D41" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="34"/>
+      <c r="D45" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="34"/>
+      <c r="D46" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
@@ -3840,6 +3910,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F23:H35"/>
+    <mergeCell ref="B23:E35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="F8:H22"/>
+    <mergeCell ref="B8:E22"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="D44:H44"/>
     <mergeCell ref="D45:H45"/>
@@ -3856,18 +3938,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F23:H35"/>
-    <mergeCell ref="B23:E35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="F8:H22"/>
-    <mergeCell ref="B8:E22"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D40" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
@@ -3910,41 +3980,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
@@ -3961,40 +4031,40 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="2:8" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="2:8" s="11" customFormat="1" ht="102.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:8" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
@@ -4011,14 +4081,14 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4062,488 +4132,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="2:8" s="9" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="89" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="78"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" s="9" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="39" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="57" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="39" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="39" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="57" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="57" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="57" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="70" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="71"/>
     </row>
     <row r="21" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="77" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="78"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="38" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="40"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="43"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="43"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="2:8" ht="50.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="59" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="38" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="40"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="43"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="43"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="43"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="38" t="s">
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="46"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="38" t="s">
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="40"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="46"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="53"/>
     </row>
     <row r="35" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="76"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="77" t="s">
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="78"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
       <c r="G37" s="70" t="s">
         <v>40</v>
       </c>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
       <c r="G38" s="70" t="s">
         <v>41</v>
       </c>
       <c r="H38" s="72"/>
     </row>
     <row r="39" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="38" t="s">
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="40"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="43"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="43"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="46"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="38" t="s">
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="40"/>
+      <c r="H43" s="47"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="43"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="43"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B3:F20"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G10:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:H21"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G39:H42"/>
     <mergeCell ref="G43:H45"/>
@@ -4560,6 +4617,19 @@
     <mergeCell ref="G23:H25"/>
     <mergeCell ref="G27:H30"/>
     <mergeCell ref="G31:H32"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B3:F20"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4592,392 +4662,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="59" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59" t="s">
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="94"/>
+      <c r="D12" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59" t="s">
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="59" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97" t="s">
+      <c r="C20" s="99"/>
+      <c r="D20" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97" t="s">
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="97"/>
+      <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8" s="1" customFormat="1" ht="81.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="59" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59" t="s">
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="59"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="59"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="59" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59" t="s">
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="59"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="59" t="s">
+      <c r="C24" s="94"/>
+      <c r="D24" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59" t="s">
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="59" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="2:8" s="1" customFormat="1" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="59" t="s">
+      <c r="C26" s="94"/>
+      <c r="D26" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="2:8" s="1" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="59" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59" t="s">
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B18:H18"/>
@@ -4994,61 +5119,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5080,179 +5150,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="2:8" s="13" customFormat="1" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="2:8" s="13" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="2:8" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="104" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="105"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="104" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="105"/>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="105"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="104" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="105"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="105"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108"/>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B10" s="104" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="105"/>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="105"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="104" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="105"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="104" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="105"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -5269,13 +5346,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5307,32 +5377,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="66" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="109"/>
@@ -5345,7 +5415,7 @@
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="66" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="109"/>
@@ -5355,28 +5425,28 @@
       <c r="H4" s="109"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
@@ -5395,33 +5465,33 @@
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="66" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="109"/>
@@ -5431,26 +5501,26 @@
       <c r="H10" s="109"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
@@ -5469,20 +5539,20 @@
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="66" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="109"/>
@@ -5493,12 +5563,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
@@ -5508,6 +5572,12 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>

--- a/KasaDevices/Documentation.xlsx
+++ b/KasaDevices/Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - HubitatActive\KasaDevices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C9E67-0D4B-4D15-8CD3-372C7D892313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D8ABC8-D0C1-481C-AE1D-7669057DA538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4741" yWindow="190" windowWidth="19277" windowHeight="11928" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="6562" yWindow="68" windowWidth="19276" windowHeight="11927" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="6_5_2 Changes" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Troubleshooting" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6_5_2 Changes'!$A$1:$C$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6_5_2 Changes'!$A$1:$C$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Application Description'!$B$1:$H$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Capabilities'!$B$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Device Preferences'!$B$1:$H$14</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="210">
   <si>
     <t>Note</t>
   </si>
@@ -1826,6 +1826,33 @@
   </si>
   <si>
     <t>Fixed error precluding proper processing of the device's resident alias to update Hubitat name for the device.</t>
+  </si>
+  <si>
+    <t>Version 6.5.4 Changes</t>
+  </si>
+  <si>
+    <t>Transition Time null fix</t>
+  </si>
+  <si>
+    <t>Bulbs</t>
+  </si>
+  <si>
+    <t>Fixed transition time so that in some cases it does not throw a null value when converting sec to msec.</t>
+  </si>
+  <si>
+    <t>Get Power parsing</t>
+  </si>
+  <si>
+    <t>Modified power parsing to delay get power for 3 seconds to accommodate some rule machine timing issues.</t>
+  </si>
+  <si>
+    <t>Debug Logging Pars Method</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Added a logDebug to the parse method to log the return message.</t>
   </si>
 </sst>
 </file>
@@ -2188,6 +2215,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2197,6 +2227,99 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2218,99 +2341,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2320,15 +2350,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2359,17 +2401,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2380,29 +2434,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2413,26 +2458,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3067,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FC7E-86F3-4E8F-B488-D1BDD385F89C}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3083,64 +3110,64 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+    <row r="2" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
+      <c r="A6" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -3155,175 +3182,199 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C16" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="17" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B17" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    <row r="18" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B18" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C18" s="24" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B25" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="26" spans="1:3" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B26" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="27" spans="1:3" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="28" spans="1:3" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -3390,15 +3441,48 @@
       <c r="B41" s="21"/>
       <c r="C41" s="19"/>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="19"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3427,360 +3511,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="2:8" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="36.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="2:8" ht="105.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="45" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="45" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="2:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
     </row>
     <row r="36" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>5</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="59"/>
     </row>
     <row r="37" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
@@ -3792,117 +3876,117 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="33" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
     </row>
     <row r="41" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="70"/>
+      <c r="D41" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
     </row>
     <row r="43" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
     </row>
     <row r="44" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="66"/>
+      <c r="D44" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
     </row>
     <row r="46" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="33" t="s">
+      <c r="C46" s="66"/>
+      <c r="D46" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
@@ -3910,18 +3994,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F23:H35"/>
-    <mergeCell ref="B23:E35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="F8:H22"/>
-    <mergeCell ref="B8:E22"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="D44:H44"/>
     <mergeCell ref="D45:H45"/>
@@ -3938,6 +4010,18 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F23:H35"/>
+    <mergeCell ref="B23:E35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="F8:H22"/>
+    <mergeCell ref="B8:E22"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D40" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
@@ -3980,115 +4064,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:8" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="2:8" s="11" customFormat="1" ht="102.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="2:8" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="2:8" s="11" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4132,475 +4216,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="2:8" s="9" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="85" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="2:8" s="9" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="46" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="64" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="46" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="47"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="46" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="71" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="64" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="64" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="65"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="64" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="70" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="72"/>
     </row>
     <row r="21" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="74" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="75"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="45" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="2:8" ht="50.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="66" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="45" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="50"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="50"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="50"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="45" t="s">
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="53"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="45" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="53"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="2:8" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="88"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="77"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="74" t="s">
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="75"/>
+      <c r="H36" s="79"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="70" t="s">
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="72"/>
+      <c r="H37" s="73"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="70" t="s">
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="72"/>
+      <c r="H38" s="73"/>
     </row>
     <row r="39" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="45" t="s">
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="47"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="50"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="50"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="53"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="47"/>
     </row>
     <row r="43" spans="2:8" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="45" t="s">
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="47"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="50"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="44"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="50"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="44"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B3:F20"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G39:H42"/>
     <mergeCell ref="G43:H45"/>
@@ -4617,19 +4714,6 @@
     <mergeCell ref="G23:H25"/>
     <mergeCell ref="G27:H30"/>
     <mergeCell ref="G31:H32"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B3:F20"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G10:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4662,423 +4746,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="92"/>
+      <c r="D10" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66" t="s">
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="66"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="66"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="92"/>
+      <c r="D17" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100" t="s">
+      <c r="C20" s="97"/>
+      <c r="D20" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100" t="s">
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="100"/>
+      <c r="H20" s="98"/>
     </row>
     <row r="21" spans="2:8" s="1" customFormat="1" ht="81.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="92"/>
+      <c r="D21" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66" t="s">
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="92"/>
+      <c r="D22" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="66"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="2:8" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="92"/>
+      <c r="D23" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66" t="s">
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="66"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="92"/>
+      <c r="D25" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66" t="s">
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="2:8" s="1" customFormat="1" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66" t="s">
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="2:8" s="1" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="66" t="s">
+      <c r="C27" s="92"/>
+      <c r="D27" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66" t="s">
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:H27"/>
@@ -5095,30 +5172,37 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5150,186 +5234,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:8" s="13" customFormat="1" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="2:8" s="13" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="2:8" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="106"/>
+      <c r="D6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="63" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -5346,6 +5423,13 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5377,192 +5461,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="21.1" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
@@ -5572,12 +5662,6 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
